--- a/Code/Results/Cases/Case_5_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_201/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.95464279071381</v>
+        <v>24.79234167118251</v>
       </c>
       <c r="C2">
-        <v>16.43792727178363</v>
+        <v>12.1986898178024</v>
       </c>
       <c r="D2">
-        <v>2.659822446867382</v>
+        <v>4.116472192994415</v>
       </c>
       <c r="E2">
-        <v>6.024881183097035</v>
+        <v>9.434954983491362</v>
       </c>
       <c r="F2">
-        <v>38.11684799997894</v>
+        <v>51.05152519456281</v>
       </c>
       <c r="I2">
-        <v>24.62164796036004</v>
+        <v>35.71718101469816</v>
       </c>
       <c r="J2">
-        <v>5.676656160064833</v>
+        <v>9.319292756766067</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.291691832136866</v>
+        <v>12.18213002633322</v>
       </c>
       <c r="M2">
-        <v>14.78795821981292</v>
+        <v>20.71384453939665</v>
       </c>
       <c r="N2">
-        <v>14.35916961134693</v>
+        <v>22.07692054025621</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.55955353372234</v>
+        <v>24.52690093257728</v>
       </c>
       <c r="C3">
-        <v>15.26467840490463</v>
+        <v>11.84615480778898</v>
       </c>
       <c r="D3">
-        <v>2.539575378072064</v>
+        <v>4.088055010942537</v>
       </c>
       <c r="E3">
-        <v>5.965301645093605</v>
+        <v>9.422241046720382</v>
       </c>
       <c r="F3">
-        <v>37.20057288397488</v>
+        <v>51.03973662063927</v>
       </c>
       <c r="I3">
-        <v>24.36772141105531</v>
+        <v>35.77477713447178</v>
       </c>
       <c r="J3">
-        <v>5.696788931021944</v>
+        <v>9.32599649678642</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.208091310575934</v>
+        <v>12.19652173816174</v>
       </c>
       <c r="M3">
-        <v>14.24973997230875</v>
+        <v>20.67533557885177</v>
       </c>
       <c r="N3">
-        <v>14.62042850390141</v>
+        <v>22.14782543832314</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.67529943803875</v>
+        <v>24.36889176902127</v>
       </c>
       <c r="C4">
-        <v>14.52249310689917</v>
+        <v>11.62822034687801</v>
       </c>
       <c r="D4">
-        <v>2.464634351162365</v>
+        <v>4.070077268847696</v>
       </c>
       <c r="E4">
-        <v>5.928862279207282</v>
+        <v>9.414262293700673</v>
       </c>
       <c r="F4">
-        <v>36.66382507004938</v>
+        <v>51.04436539992761</v>
       </c>
       <c r="I4">
-        <v>24.23260055394615</v>
+        <v>35.81731954102613</v>
       </c>
       <c r="J4">
-        <v>5.709569838222748</v>
+        <v>9.330338538789693</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.160019713221868</v>
+        <v>12.20699692142309</v>
       </c>
       <c r="M4">
-        <v>13.9188422626355</v>
+        <v>20.65563771639017</v>
       </c>
       <c r="N4">
-        <v>14.78393922868106</v>
+        <v>22.19336377595812</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.3082945947174</v>
+        <v>24.30582228839021</v>
       </c>
       <c r="C5">
-        <v>14.2234046428785</v>
+        <v>11.53919234269348</v>
       </c>
       <c r="D5">
-        <v>2.433798749596426</v>
+        <v>4.06261818215492</v>
       </c>
       <c r="E5">
-        <v>5.914031644711983</v>
+        <v>9.410967310821276</v>
       </c>
       <c r="F5">
-        <v>36.45157651865553</v>
+        <v>51.04923214866234</v>
       </c>
       <c r="I5">
-        <v>24.18256091514913</v>
+        <v>35.83645571585502</v>
       </c>
       <c r="J5">
-        <v>5.714885199494228</v>
+        <v>9.332164926048929</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.141241701438104</v>
+        <v>12.21167793815653</v>
       </c>
       <c r="M5">
-        <v>13.78404920434903</v>
+        <v>20.64860851326575</v>
       </c>
       <c r="N5">
-        <v>14.85138416696896</v>
+        <v>22.21242588281557</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.24696141335886</v>
+        <v>24.2954314019402</v>
       </c>
       <c r="C6">
-        <v>14.17329469668285</v>
+        <v>11.52440077982387</v>
       </c>
       <c r="D6">
-        <v>2.428660167842728</v>
+        <v>4.061371576722823</v>
       </c>
       <c r="E6">
-        <v>5.911569685107669</v>
+        <v>9.41041754250789</v>
       </c>
       <c r="F6">
-        <v>36.41672350824291</v>
+        <v>51.05022014332374</v>
       </c>
       <c r="I6">
-        <v>24.17454922122394</v>
+        <v>35.83974180661267</v>
       </c>
       <c r="J6">
-        <v>5.715774321852667</v>
+        <v>9.332471641837218</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.138172397855591</v>
+        <v>12.21248012534246</v>
       </c>
       <c r="M6">
-        <v>13.76167493848272</v>
+        <v>20.6475017284529</v>
       </c>
       <c r="N6">
-        <v>14.86263343068883</v>
+        <v>22.21562166299561</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.67037641753748</v>
+        <v>24.36803575459909</v>
       </c>
       <c r="C7">
-        <v>14.51848947198867</v>
+        <v>11.62702035814398</v>
       </c>
       <c r="D7">
-        <v>2.464219712692015</v>
+        <v>4.069977211353107</v>
       </c>
       <c r="E7">
-        <v>5.928662213967568</v>
+        <v>9.41421803314674</v>
       </c>
       <c r="F7">
-        <v>36.66093640281671</v>
+        <v>51.04441897298071</v>
       </c>
       <c r="I7">
-        <v>24.23190563556933</v>
+        <v>35.81757033817465</v>
       </c>
       <c r="J7">
-        <v>5.709641087567904</v>
+        <v>9.330362939204598</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.159763191399756</v>
+        <v>12.20705838160111</v>
       </c>
       <c r="M7">
-        <v>13.9170239696786</v>
+        <v>20.65553887141209</v>
       </c>
       <c r="N7">
-        <v>14.78484547841203</v>
+        <v>22.19361880830853</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.47950737803125</v>
+        <v>24.69982855719716</v>
       </c>
       <c r="C8">
-        <v>16.04061046926391</v>
+        <v>12.077531711011</v>
       </c>
       <c r="D8">
-        <v>2.618579495808055</v>
+        <v>4.106783915898111</v>
       </c>
       <c r="E8">
-        <v>6.004297688768713</v>
+        <v>9.430606842699779</v>
       </c>
       <c r="F8">
-        <v>37.79554075211628</v>
+        <v>51.04499585664011</v>
       </c>
       <c r="I8">
-        <v>24.52965626004847</v>
+        <v>35.73554730859858</v>
       </c>
       <c r="J8">
-        <v>5.683511894294761</v>
+        <v>9.321557413917251</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.262185087231048</v>
+        <v>12.18675235847357</v>
       </c>
       <c r="M8">
-        <v>14.60255898014491</v>
+        <v>20.69975094396977</v>
       </c>
       <c r="N8">
-        <v>14.44862999794666</v>
+        <v>22.10095374863319</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.79900270899443</v>
+        <v>25.38672562499639</v>
       </c>
       <c r="C9">
-        <v>18.77874061186029</v>
+        <v>12.94295895982842</v>
       </c>
       <c r="D9">
-        <v>2.913506731119595</v>
+        <v>4.174756801362074</v>
       </c>
       <c r="E9">
-        <v>6.154620648517782</v>
+        <v>9.461389392392933</v>
       </c>
       <c r="F9">
-        <v>40.2266474753064</v>
+        <v>51.14037594266033</v>
       </c>
       <c r="I9">
-        <v>25.28763327549332</v>
+        <v>35.63187536417959</v>
       </c>
       <c r="J9">
-        <v>5.635524112538078</v>
+        <v>9.306075025469003</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.489268664652942</v>
+        <v>12.15992201977799</v>
       </c>
       <c r="M9">
-        <v>15.93757456254466</v>
+        <v>20.81749914017274</v>
       </c>
       <c r="N9">
-        <v>13.81226911459547</v>
+        <v>21.93506412932311</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.09233033508393</v>
+        <v>25.90907205686663</v>
       </c>
       <c r="C10">
-        <v>20.63239450651838</v>
+        <v>13.56001811907501</v>
       </c>
       <c r="D10">
-        <v>3.127248229276536</v>
+        <v>4.222131006246318</v>
       </c>
       <c r="E10">
-        <v>6.267661904935521</v>
+        <v>9.483196077570341</v>
       </c>
       <c r="F10">
-        <v>42.14109345622698</v>
+        <v>51.2679280290238</v>
       </c>
       <c r="I10">
-        <v>25.96329343510086</v>
+        <v>35.59084323718618</v>
       </c>
       <c r="J10">
-        <v>5.602140167243649</v>
+        <v>9.295778151381864</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.672678979683154</v>
+        <v>12.14811119368473</v>
       </c>
       <c r="M10">
-        <v>16.90652506722192</v>
+        <v>20.92253340934225</v>
       </c>
       <c r="N10">
-        <v>13.35640435684918</v>
+        <v>21.82274419021714</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.10877001469739</v>
+        <v>26.14958000972739</v>
       </c>
       <c r="C11">
-        <v>21.44363296617598</v>
+        <v>13.83521420947753</v>
       </c>
       <c r="D11">
-        <v>3.224356824857914</v>
+        <v>4.24312543220248</v>
       </c>
       <c r="E11">
-        <v>6.320012781188901</v>
+        <v>9.49294452965988</v>
       </c>
       <c r="F11">
-        <v>43.04099705447256</v>
+        <v>51.33840090837143</v>
       </c>
       <c r="I11">
-        <v>26.29928488702777</v>
+        <v>35.57985725244973</v>
       </c>
       <c r="J11">
-        <v>5.58733466075647</v>
+        <v>9.291325737853381</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.759870265846964</v>
+        <v>12.14444908991998</v>
       </c>
       <c r="M11">
-        <v>17.34395335220681</v>
+        <v>20.97423735152848</v>
       </c>
       <c r="N11">
-        <v>13.15103106491754</v>
+        <v>21.77370371715278</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.51594146587637</v>
+        <v>26.24098889567952</v>
       </c>
       <c r="C12">
-        <v>21.7464461666636</v>
+        <v>13.93852551327064</v>
       </c>
       <c r="D12">
-        <v>3.261163223188694</v>
+        <v>4.250995370109342</v>
       </c>
       <c r="E12">
-        <v>6.340005272350116</v>
+        <v>9.496611614127664</v>
       </c>
       <c r="F12">
-        <v>43.38608246412577</v>
+        <v>51.36687090373211</v>
       </c>
       <c r="I12">
-        <v>26.43087955757986</v>
+        <v>35.57680480177332</v>
       </c>
       <c r="J12">
-        <v>5.581780900813206</v>
+        <v>9.289672876170819</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.793443225219916</v>
+        <v>12.1433078150889</v>
       </c>
       <c r="M12">
-        <v>17.50908397732402</v>
+        <v>20.99437066254043</v>
       </c>
       <c r="N12">
-        <v>13.07350622112957</v>
+        <v>21.7554274260726</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.42851105127416</v>
+        <v>26.22128880977844</v>
       </c>
       <c r="C13">
-        <v>21.68142121296363</v>
+        <v>13.91631718487985</v>
       </c>
       <c r="D13">
-        <v>3.253233909884979</v>
+        <v>4.249304007952095</v>
       </c>
       <c r="E13">
-        <v>6.335691433636341</v>
+        <v>9.495822925471744</v>
       </c>
       <c r="F13">
-        <v>43.31156757306834</v>
+        <v>51.36066018860526</v>
       </c>
       <c r="I13">
-        <v>26.40234019590522</v>
+        <v>35.5774128879589</v>
       </c>
       <c r="J13">
-        <v>5.582974688654486</v>
+        <v>9.290027376535662</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.786187700173906</v>
+        <v>12.14354269989296</v>
       </c>
       <c r="M13">
-        <v>17.4735431983107</v>
+        <v>20.99001011472365</v>
       </c>
       <c r="N13">
-        <v>13.09019233768277</v>
+        <v>21.75935048269478</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.14238630087738</v>
+        <v>26.15709405171152</v>
       </c>
       <c r="C14">
-        <v>21.4686321374362</v>
+        <v>13.84373229952811</v>
       </c>
       <c r="D14">
-        <v>3.227383914421464</v>
+        <v>4.243774505067806</v>
       </c>
       <c r="E14">
-        <v>6.321653983386795</v>
+        <v>9.493246711512329</v>
       </c>
       <c r="F14">
-        <v>43.06930003363215</v>
+        <v>51.34070745429968</v>
       </c>
       <c r="I14">
-        <v>26.31002237213135</v>
+        <v>35.57958390798576</v>
       </c>
       <c r="J14">
-        <v>5.586876703952574</v>
+        <v>9.291189091966846</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.762621100182171</v>
+        <v>12.14435027984088</v>
       </c>
       <c r="M14">
-        <v>17.35754912791544</v>
+        <v>20.9758826850141</v>
       </c>
       <c r="N14">
-        <v>13.14464837103598</v>
+        <v>21.77219422458525</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.97172427549403</v>
+        <v>26.11781395306985</v>
       </c>
       <c r="C15">
-        <v>21.33772849796178</v>
+        <v>13.79915180377471</v>
       </c>
       <c r="D15">
-        <v>3.211556071966294</v>
+        <v>4.240377075355176</v>
       </c>
       <c r="E15">
-        <v>6.313078686366101</v>
+        <v>9.491665529449582</v>
       </c>
       <c r="F15">
-        <v>42.92147073034402</v>
+        <v>51.32871785420978</v>
       </c>
       <c r="I15">
-        <v>26.25405067093232</v>
+        <v>35.5810580674183</v>
       </c>
       <c r="J15">
-        <v>5.589273611169674</v>
+        <v>9.291904991719315</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.74825873359888</v>
+        <v>12.14487689890055</v>
       </c>
       <c r="M15">
-        <v>17.28643202574264</v>
+        <v>20.96730108383418</v>
       </c>
       <c r="N15">
-        <v>13.1780349835879</v>
+        <v>21.78009967629991</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.02558356135535</v>
+        <v>25.89340544380627</v>
       </c>
       <c r="C16">
-        <v>20.57875212110743</v>
+        <v>13.54191316125436</v>
       </c>
       <c r="D16">
-        <v>3.120903659098486</v>
+        <v>4.220747759447923</v>
       </c>
       <c r="E16">
-        <v>6.264262196681705</v>
+        <v>9.482555560874921</v>
       </c>
       <c r="F16">
-        <v>42.08287714922002</v>
+        <v>51.2635724360712</v>
       </c>
       <c r="I16">
-        <v>25.94193228104309</v>
+        <v>35.59171603227406</v>
       </c>
       <c r="J16">
-        <v>5.603115237314909</v>
+        <v>9.296073776727901</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.667057652516271</v>
+        <v>12.14838490210642</v>
       </c>
       <c r="M16">
-        <v>16.87786725636004</v>
+        <v>20.91923254204878</v>
       </c>
       <c r="N16">
-        <v>13.36986265909722</v>
+        <v>21.82599034189386</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.43710937107367</v>
+        <v>25.75641992205332</v>
       </c>
       <c r="C17">
-        <v>20.10509432062615</v>
+        <v>13.38261528453154</v>
       </c>
       <c r="D17">
-        <v>3.065293573193445</v>
+        <v>4.208563178644489</v>
       </c>
       <c r="E17">
-        <v>6.234575838449842</v>
+        <v>9.476923118327205</v>
       </c>
       <c r="F17">
-        <v>41.5759407150151</v>
+        <v>51.2267921370373</v>
       </c>
       <c r="I17">
-        <v>25.75795992103534</v>
+        <v>35.60022386693724</v>
       </c>
       <c r="J17">
-        <v>5.611702794301925</v>
+        <v>9.298690427746553</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.618215508613297</v>
+        <v>12.15097475550447</v>
       </c>
       <c r="M17">
-        <v>16.62633560929107</v>
+        <v>20.8907420021329</v>
       </c>
       <c r="N17">
-        <v>13.48802548431597</v>
+        <v>21.85466814171421</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.09565703391946</v>
+        <v>25.67790637174979</v>
       </c>
       <c r="C18">
-        <v>19.82963254580917</v>
+        <v>13.29047876752248</v>
       </c>
       <c r="D18">
-        <v>3.033292957899032</v>
+        <v>4.201502576353736</v>
       </c>
       <c r="E18">
-        <v>6.217586001363542</v>
+        <v>9.473667329097438</v>
       </c>
       <c r="F18">
-        <v>41.28708386162355</v>
+        <v>51.20680934567948</v>
       </c>
       <c r="I18">
-        <v>25.65482323607506</v>
+        <v>35.60584003177402</v>
       </c>
       <c r="J18">
-        <v>5.616678118611138</v>
+        <v>9.300217272223707</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.590475340469155</v>
+        <v>12.15262542457676</v>
       </c>
       <c r="M18">
-        <v>16.48134588227246</v>
+        <v>20.87472492445545</v>
       </c>
       <c r="N18">
-        <v>13.55618061393555</v>
+        <v>21.87135629426986</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.97953448570401</v>
+        <v>25.65137309081008</v>
       </c>
       <c r="C19">
-        <v>19.7358400112929</v>
+        <v>13.25919833246323</v>
       </c>
       <c r="D19">
-        <v>3.022454068356787</v>
+        <v>4.199102991963062</v>
       </c>
       <c r="E19">
-        <v>6.211847142908016</v>
+        <v>9.472562193019277</v>
       </c>
       <c r="F19">
-        <v>41.18974559390695</v>
+        <v>51.20024502459126</v>
       </c>
       <c r="I19">
-        <v>25.62035590730781</v>
+        <v>35.60786557935936</v>
       </c>
       <c r="J19">
-        <v>5.618368919646567</v>
+        <v>9.300737986903322</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.581143134282603</v>
+        <v>12.153211988474</v>
       </c>
       <c r="M19">
-        <v>16.43220212974057</v>
+        <v>20.86936564623069</v>
       </c>
       <c r="N19">
-        <v>13.57929085637055</v>
+        <v>21.87703987497229</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.50006127793699</v>
+        <v>25.77097420122383</v>
       </c>
       <c r="C20">
-        <v>20.15582773951105</v>
+        <v>13.39962667813201</v>
       </c>
       <c r="D20">
-        <v>3.071214586695544</v>
+        <v>4.209865667849406</v>
       </c>
       <c r="E20">
-        <v>6.237726970408949</v>
+        <v>9.477524372024536</v>
       </c>
       <c r="F20">
-        <v>41.62962265907962</v>
+        <v>51.23058618038468</v>
       </c>
       <c r="I20">
-        <v>25.77726506900184</v>
+        <v>35.59924337275156</v>
       </c>
       <c r="J20">
-        <v>5.610784923973457</v>
+        <v>9.298409623965298</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.623378251779221</v>
+        <v>12.1506823962629</v>
       </c>
       <c r="M20">
-        <v>16.65314454606618</v>
+        <v>20.89373665312898</v>
       </c>
       <c r="N20">
-        <v>13.47542738765181</v>
+        <v>21.85159532913437</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.22658788472131</v>
+        <v>26.17594119980157</v>
       </c>
       <c r="C21">
-        <v>21.53125059678675</v>
+        <v>13.86507745832297</v>
       </c>
       <c r="D21">
-        <v>3.234975325184594</v>
+        <v>4.245400832118922</v>
       </c>
       <c r="E21">
-        <v>6.325772250321461</v>
+        <v>9.49400406961545</v>
       </c>
       <c r="F21">
-        <v>43.14034148288538</v>
+        <v>51.34651971668765</v>
       </c>
       <c r="I21">
-        <v>26.33701793053277</v>
+        <v>35.5789161396868</v>
       </c>
       <c r="J21">
-        <v>5.585729171946071</v>
+        <v>9.290846968894437</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.76952796632355</v>
+        <v>12.14410641605627</v>
       </c>
       <c r="M21">
-        <v>17.39163345680119</v>
+        <v>20.98001729739529</v>
       </c>
       <c r="N21">
-        <v>13.1286469877706</v>
+        <v>21.76841372889895</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.40088214572555</v>
+        <v>26.44251841378005</v>
       </c>
       <c r="C22">
-        <v>22.4047300045684</v>
+        <v>14.16399078580403</v>
       </c>
       <c r="D22">
-        <v>3.342227740141705</v>
+        <v>4.268157588183336</v>
       </c>
       <c r="E22">
-        <v>6.384316226514413</v>
+        <v>9.504632135079873</v>
       </c>
       <c r="F22">
-        <v>44.15292114251327</v>
+        <v>51.43267980058818</v>
       </c>
       <c r="I22">
-        <v>26.72840162491797</v>
+        <v>35.57208886428301</v>
       </c>
       <c r="J22">
-        <v>5.569660352955603</v>
+        <v>9.286097614192455</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.868293008303856</v>
+        <v>12.14123922095873</v>
       </c>
       <c r="M22">
-        <v>17.87128909259441</v>
+        <v>21.03963156551484</v>
       </c>
       <c r="N22">
-        <v>12.90341763696344</v>
+        <v>21.71576446347408</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.77722934054982</v>
+        <v>26.30009342809117</v>
       </c>
       <c r="C23">
-        <v>21.9407862950896</v>
+        <v>14.00497167792428</v>
       </c>
       <c r="D23">
-        <v>3.28494527312444</v>
+        <v>4.256054721202728</v>
       </c>
       <c r="E23">
-        <v>6.352965682401078</v>
+        <v>9.498972690635304</v>
       </c>
       <c r="F23">
-        <v>43.6101178931148</v>
+        <v>51.38574648995924</v>
       </c>
       <c r="I23">
-        <v>26.51708880073539</v>
+        <v>35.57514084371246</v>
       </c>
       <c r="J23">
-        <v>5.578209219701831</v>
+        <v>9.28861479700336</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.815277069851044</v>
+        <v>12.14263878373348</v>
       </c>
       <c r="M23">
-        <v>17.61556429172331</v>
+        <v>21.00752272035579</v>
       </c>
       <c r="N23">
-        <v>13.02351161507388</v>
+        <v>21.7437078465524</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.47161047698123</v>
+        <v>25.76439345387783</v>
       </c>
       <c r="C24">
-        <v>20.13290098708448</v>
+        <v>13.39193754458105</v>
       </c>
       <c r="D24">
-        <v>3.068537792557228</v>
+        <v>4.209276985439427</v>
       </c>
       <c r="E24">
-        <v>6.23630210561606</v>
+        <v>9.477252600152971</v>
       </c>
       <c r="F24">
-        <v>41.6053450019639</v>
+        <v>51.22886727116553</v>
       </c>
       <c r="I24">
-        <v>25.76852903344068</v>
+        <v>35.59968439638746</v>
       </c>
       <c r="J24">
-        <v>5.611199773938654</v>
+        <v>9.298536505269061</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.621043118199446</v>
+        <v>12.15081406807657</v>
       </c>
       <c r="M24">
-        <v>16.64102540916245</v>
+        <v>20.89238164145942</v>
       </c>
       <c r="N24">
-        <v>13.48112229326644</v>
+        <v>21.85298392178023</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.92633725893523</v>
+        <v>25.19747164687344</v>
       </c>
       <c r="C25">
-        <v>18.06645344132721</v>
+        <v>12.7116096789375</v>
       </c>
       <c r="D25">
-        <v>2.834388247397384</v>
+        <v>4.156818706975699</v>
       </c>
       <c r="E25">
-        <v>6.113607928329585</v>
+        <v>9.453205252937344</v>
       </c>
       <c r="F25">
-        <v>39.5466945921252</v>
+        <v>51.10447357438098</v>
       </c>
       <c r="I25">
-        <v>25.06264838209617</v>
+        <v>35.65376970399402</v>
       </c>
       <c r="J25">
-        <v>5.648169052300128</v>
+        <v>9.310073369184019</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.424971678405637</v>
+        <v>12.165791269619</v>
       </c>
       <c r="M25">
-        <v>15.57814713707376</v>
+        <v>20.78235978823906</v>
       </c>
       <c r="N25">
-        <v>13.98219950153933</v>
+        <v>21.97825661289527</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_201/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.79234167118251</v>
+        <v>23.95464279071373</v>
       </c>
       <c r="C2">
-        <v>12.1986898178024</v>
+        <v>16.43792727178362</v>
       </c>
       <c r="D2">
-        <v>4.116472192994415</v>
+        <v>2.659822446867511</v>
       </c>
       <c r="E2">
-        <v>9.434954983491362</v>
+        <v>6.024881183097041</v>
       </c>
       <c r="F2">
-        <v>51.05152519456281</v>
+        <v>38.11684799997872</v>
       </c>
       <c r="I2">
-        <v>35.71718101469816</v>
+        <v>24.62164796035978</v>
       </c>
       <c r="J2">
-        <v>9.319292756766067</v>
+        <v>5.6766561600648</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.18213002633322</v>
+        <v>7.291691832136897</v>
       </c>
       <c r="M2">
-        <v>20.71384453939665</v>
+        <v>14.78795821981285</v>
       </c>
       <c r="N2">
-        <v>22.07692054025621</v>
+        <v>14.35916961134683</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.52690093257728</v>
+        <v>22.55955353372233</v>
       </c>
       <c r="C3">
-        <v>11.84615480778898</v>
+        <v>15.26467840490468</v>
       </c>
       <c r="D3">
-        <v>4.088055010942537</v>
+        <v>2.539575378071882</v>
       </c>
       <c r="E3">
-        <v>9.422241046720382</v>
+        <v>5.965301645093671</v>
       </c>
       <c r="F3">
-        <v>51.03973662063927</v>
+        <v>37.20057288397457</v>
       </c>
       <c r="I3">
-        <v>35.77477713447178</v>
+        <v>24.36772141105517</v>
       </c>
       <c r="J3">
-        <v>9.32599649678642</v>
+        <v>5.696788931022045</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.19652173816174</v>
+        <v>7.208091310575853</v>
       </c>
       <c r="M3">
-        <v>20.67533557885177</v>
+        <v>14.24973997230866</v>
       </c>
       <c r="N3">
-        <v>22.14782543832314</v>
+        <v>14.62042850390134</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.36889176902127</v>
+        <v>21.67529943803872</v>
       </c>
       <c r="C4">
-        <v>11.62822034687801</v>
+        <v>14.52249310689915</v>
       </c>
       <c r="D4">
-        <v>4.070077268847696</v>
+        <v>2.464634351162366</v>
       </c>
       <c r="E4">
-        <v>9.414262293700673</v>
+        <v>5.92886227920728</v>
       </c>
       <c r="F4">
-        <v>51.04436539992761</v>
+        <v>36.66382507004936</v>
       </c>
       <c r="I4">
-        <v>35.81731954102613</v>
+        <v>24.23260055394605</v>
       </c>
       <c r="J4">
-        <v>9.330338538789693</v>
+        <v>5.709569838222748</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.20699692142309</v>
+        <v>7.160019713221947</v>
       </c>
       <c r="M4">
-        <v>20.65563771639017</v>
+        <v>13.91884226263551</v>
       </c>
       <c r="N4">
-        <v>22.19336377595812</v>
+        <v>14.783939228681</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.30582228839021</v>
+        <v>21.30829459471742</v>
       </c>
       <c r="C5">
-        <v>11.53919234269348</v>
+        <v>14.2234046428785</v>
       </c>
       <c r="D5">
-        <v>4.06261818215492</v>
+        <v>2.433798749596504</v>
       </c>
       <c r="E5">
-        <v>9.410967310821276</v>
+        <v>5.914031644711983</v>
       </c>
       <c r="F5">
-        <v>51.04923214866234</v>
+        <v>36.45157651865568</v>
       </c>
       <c r="I5">
-        <v>35.83645571585502</v>
+        <v>24.18256091514927</v>
       </c>
       <c r="J5">
-        <v>9.332164926048929</v>
+        <v>5.714885199494228</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.21167793815653</v>
+        <v>7.141241701438131</v>
       </c>
       <c r="M5">
-        <v>20.64860851326575</v>
+        <v>13.78404920434903</v>
       </c>
       <c r="N5">
-        <v>22.21242588281557</v>
+        <v>14.85138416696904</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.2954314019402</v>
+        <v>21.24696141335887</v>
       </c>
       <c r="C6">
-        <v>11.52440077982387</v>
+        <v>14.17329469668286</v>
       </c>
       <c r="D6">
-        <v>4.061371576722823</v>
+        <v>2.428660167842985</v>
       </c>
       <c r="E6">
-        <v>9.41041754250789</v>
+        <v>5.911569685107872</v>
       </c>
       <c r="F6">
-        <v>51.05022014332374</v>
+        <v>36.41672350824294</v>
       </c>
       <c r="I6">
-        <v>35.83974180661267</v>
+        <v>24.17454922122396</v>
       </c>
       <c r="J6">
-        <v>9.332471641837218</v>
+        <v>5.715774321852699</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.21248012534246</v>
+        <v>7.138172397855609</v>
       </c>
       <c r="M6">
-        <v>20.6475017284529</v>
+        <v>13.76167493848275</v>
       </c>
       <c r="N6">
-        <v>22.21562166299561</v>
+        <v>14.86263343068889</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.36803575459909</v>
+        <v>21.67037641753751</v>
       </c>
       <c r="C7">
-        <v>11.62702035814398</v>
+        <v>14.51848947198866</v>
       </c>
       <c r="D7">
-        <v>4.069977211353107</v>
+        <v>2.464219712692015</v>
       </c>
       <c r="E7">
-        <v>9.41421803314674</v>
+        <v>5.928662213967501</v>
       </c>
       <c r="F7">
-        <v>51.04441897298071</v>
+        <v>36.66093640281672</v>
       </c>
       <c r="I7">
-        <v>35.81757033817465</v>
+        <v>24.23190563556938</v>
       </c>
       <c r="J7">
-        <v>9.330362939204598</v>
+        <v>5.709641087567905</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.20705838160111</v>
+        <v>7.159763191399704</v>
       </c>
       <c r="M7">
-        <v>20.65553887141209</v>
+        <v>13.91702396967862</v>
       </c>
       <c r="N7">
-        <v>22.19361880830853</v>
+        <v>14.784845478412</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.69982855719716</v>
+        <v>23.47950737803124</v>
       </c>
       <c r="C8">
-        <v>12.077531711011</v>
+        <v>16.04061046926392</v>
       </c>
       <c r="D8">
-        <v>4.106783915898111</v>
+        <v>2.618579495808058</v>
       </c>
       <c r="E8">
-        <v>9.430606842699779</v>
+        <v>6.004297688768713</v>
       </c>
       <c r="F8">
-        <v>51.04499585664011</v>
+        <v>37.79554075211617</v>
       </c>
       <c r="I8">
-        <v>35.73554730859858</v>
+        <v>24.52965626004836</v>
       </c>
       <c r="J8">
-        <v>9.321557413917251</v>
+        <v>5.683511894294762</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.18675235847357</v>
+        <v>7.262185087231055</v>
       </c>
       <c r="M8">
-        <v>20.69975094396977</v>
+        <v>14.60255898014489</v>
       </c>
       <c r="N8">
-        <v>22.10095374863319</v>
+        <v>14.44862999794657</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.38672562499639</v>
+        <v>26.7990027089944</v>
       </c>
       <c r="C9">
-        <v>12.94295895982842</v>
+        <v>18.77874061186027</v>
       </c>
       <c r="D9">
-        <v>4.174756801362074</v>
+        <v>2.913506731119463</v>
       </c>
       <c r="E9">
-        <v>9.461389392392933</v>
+        <v>6.154620648517716</v>
       </c>
       <c r="F9">
-        <v>51.14037594266033</v>
+        <v>40.22664747530617</v>
       </c>
       <c r="I9">
-        <v>35.63187536417959</v>
+        <v>25.28763327549316</v>
       </c>
       <c r="J9">
-        <v>9.306075025469003</v>
+        <v>5.635524112538111</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.15992201977799</v>
+        <v>7.489268664652957</v>
       </c>
       <c r="M9">
-        <v>20.81749914017274</v>
+        <v>15.93757456254461</v>
       </c>
       <c r="N9">
-        <v>21.93506412932311</v>
+        <v>13.81226911459543</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.90907205686663</v>
+        <v>29.09233033508391</v>
       </c>
       <c r="C10">
-        <v>13.56001811907501</v>
+        <v>20.63239450651838</v>
       </c>
       <c r="D10">
-        <v>4.222131006246318</v>
+        <v>3.127248229276536</v>
       </c>
       <c r="E10">
-        <v>9.483196077570341</v>
+        <v>6.267661904935588</v>
       </c>
       <c r="F10">
-        <v>51.2679280290238</v>
+        <v>42.14109345622701</v>
       </c>
       <c r="I10">
-        <v>35.59084323718618</v>
+        <v>25.9632934351009</v>
       </c>
       <c r="J10">
-        <v>9.295778151381864</v>
+        <v>5.602140167243716</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.14811119368473</v>
+        <v>7.672678979683189</v>
       </c>
       <c r="M10">
-        <v>20.92253340934225</v>
+        <v>16.90652506722192</v>
       </c>
       <c r="N10">
-        <v>21.82274419021714</v>
+        <v>13.35640435684924</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.14958000972739</v>
+        <v>30.10877001469746</v>
       </c>
       <c r="C11">
-        <v>13.83521420947753</v>
+        <v>21.44363296617589</v>
       </c>
       <c r="D11">
-        <v>4.24312543220248</v>
+        <v>3.224356824857785</v>
       </c>
       <c r="E11">
-        <v>9.49294452965988</v>
+        <v>6.32001278118903</v>
       </c>
       <c r="F11">
-        <v>51.33840090837143</v>
+        <v>43.04099705447263</v>
       </c>
       <c r="I11">
-        <v>35.57985725244973</v>
+        <v>26.29928488702781</v>
       </c>
       <c r="J11">
-        <v>9.291325737853381</v>
+        <v>5.587334660756538</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.14444908991998</v>
+        <v>7.759870265847011</v>
       </c>
       <c r="M11">
-        <v>20.97423735152848</v>
+        <v>17.34395335220682</v>
       </c>
       <c r="N11">
-        <v>21.77370371715278</v>
+        <v>13.15103106491756</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.24098889567952</v>
+        <v>30.51594146587635</v>
       </c>
       <c r="C12">
-        <v>13.93852551327064</v>
+        <v>21.74644616666362</v>
       </c>
       <c r="D12">
-        <v>4.250995370109342</v>
+        <v>3.261163223188875</v>
       </c>
       <c r="E12">
-        <v>9.496611614127664</v>
+        <v>6.340005272350183</v>
       </c>
       <c r="F12">
-        <v>51.36687090373211</v>
+        <v>43.38608246412587</v>
       </c>
       <c r="I12">
-        <v>35.57680480177332</v>
+        <v>26.43087955757998</v>
       </c>
       <c r="J12">
-        <v>9.289672876170819</v>
+        <v>5.58178090081314</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.1433078150889</v>
+        <v>7.793443225219894</v>
       </c>
       <c r="M12">
-        <v>20.99437066254043</v>
+        <v>17.50908397732401</v>
       </c>
       <c r="N12">
-        <v>21.7554274260726</v>
+        <v>13.07350622112973</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.22128880977844</v>
+        <v>30.42851105127409</v>
       </c>
       <c r="C13">
-        <v>13.91631718487985</v>
+        <v>21.68142121296351</v>
       </c>
       <c r="D13">
-        <v>4.249304007952095</v>
+        <v>3.253233909884923</v>
       </c>
       <c r="E13">
-        <v>9.495822925471744</v>
+        <v>6.335691433636274</v>
       </c>
       <c r="F13">
-        <v>51.36066018860526</v>
+        <v>43.31156757306844</v>
       </c>
       <c r="I13">
-        <v>35.5774128879589</v>
+        <v>26.40234019590534</v>
       </c>
       <c r="J13">
-        <v>9.290027376535662</v>
+        <v>5.582974688654454</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.14354269989296</v>
+        <v>7.786187700173908</v>
       </c>
       <c r="M13">
-        <v>20.99001011472365</v>
+        <v>17.47354319831071</v>
       </c>
       <c r="N13">
-        <v>21.75935048269478</v>
+        <v>13.09019233768283</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.15709405171152</v>
+        <v>30.14238630087732</v>
       </c>
       <c r="C14">
-        <v>13.84373229952811</v>
+        <v>21.46863213743614</v>
       </c>
       <c r="D14">
-        <v>4.243774505067806</v>
+        <v>3.227383914421541</v>
       </c>
       <c r="E14">
-        <v>9.493246711512329</v>
+        <v>6.321653983386994</v>
       </c>
       <c r="F14">
-        <v>51.34070745429968</v>
+        <v>43.06930003363232</v>
       </c>
       <c r="I14">
-        <v>35.57958390798576</v>
+        <v>26.31002237213151</v>
       </c>
       <c r="J14">
-        <v>9.291189091966846</v>
+        <v>5.586876703952673</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.14435027984088</v>
+        <v>7.762621100182241</v>
       </c>
       <c r="M14">
-        <v>20.9758826850141</v>
+        <v>17.35754912791549</v>
       </c>
       <c r="N14">
-        <v>21.77219422458525</v>
+        <v>13.14464837103614</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.11781395306985</v>
+        <v>29.97172427549406</v>
       </c>
       <c r="C15">
-        <v>13.79915180377471</v>
+        <v>21.33772849796188</v>
       </c>
       <c r="D15">
-        <v>4.240377075355176</v>
+        <v>3.211556071966173</v>
       </c>
       <c r="E15">
-        <v>9.491665529449582</v>
+        <v>6.313078686365971</v>
       </c>
       <c r="F15">
-        <v>51.32871785420978</v>
+        <v>42.92147073034396</v>
       </c>
       <c r="I15">
-        <v>35.5810580674183</v>
+        <v>26.25405067093228</v>
       </c>
       <c r="J15">
-        <v>9.291904991719315</v>
+        <v>5.589273611169573</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.14487689890055</v>
+        <v>7.74825873359875</v>
       </c>
       <c r="M15">
-        <v>20.96730108383418</v>
+        <v>17.28643202574261</v>
       </c>
       <c r="N15">
-        <v>21.78009967629991</v>
+        <v>13.17803498358775</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.89340544380627</v>
+        <v>29.0255835613554</v>
       </c>
       <c r="C16">
-        <v>13.54191316125436</v>
+        <v>20.57875212110755</v>
       </c>
       <c r="D16">
-        <v>4.220747759447923</v>
+        <v>3.120903659098555</v>
       </c>
       <c r="E16">
-        <v>9.482555560874921</v>
+        <v>6.264262196681705</v>
       </c>
       <c r="F16">
-        <v>51.2635724360712</v>
+        <v>42.08287714921995</v>
       </c>
       <c r="I16">
-        <v>35.59171603227406</v>
+        <v>25.941932281043</v>
       </c>
       <c r="J16">
-        <v>9.296073776727901</v>
+        <v>5.603115237314908</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.14838490210642</v>
+        <v>7.667057652516284</v>
       </c>
       <c r="M16">
-        <v>20.91923254204878</v>
+        <v>16.87786725636003</v>
       </c>
       <c r="N16">
-        <v>21.82599034189386</v>
+        <v>13.36986265909708</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.75641992205332</v>
+        <v>28.43710937107368</v>
       </c>
       <c r="C17">
-        <v>13.38261528453154</v>
+        <v>20.105094320626</v>
       </c>
       <c r="D17">
-        <v>4.208563178644489</v>
+        <v>3.065293573193388</v>
       </c>
       <c r="E17">
-        <v>9.476923118327205</v>
+        <v>6.234575838449909</v>
       </c>
       <c r="F17">
-        <v>51.2267921370373</v>
+        <v>41.57594071501526</v>
       </c>
       <c r="I17">
-        <v>35.60022386693724</v>
+        <v>25.75795992103542</v>
       </c>
       <c r="J17">
-        <v>9.298690427746553</v>
+        <v>5.611702794301923</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.15097475550447</v>
+        <v>7.618215508613421</v>
       </c>
       <c r="M17">
-        <v>20.8907420021329</v>
+        <v>16.62633560929113</v>
       </c>
       <c r="N17">
-        <v>21.85466814171421</v>
+        <v>13.48802548431601</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.67790637174979</v>
+        <v>28.09565703391945</v>
       </c>
       <c r="C18">
-        <v>13.29047876752248</v>
+        <v>19.82963254580913</v>
       </c>
       <c r="D18">
-        <v>4.201502576353736</v>
+        <v>3.033292957899026</v>
       </c>
       <c r="E18">
-        <v>9.473667329097438</v>
+        <v>6.217586001363543</v>
       </c>
       <c r="F18">
-        <v>51.20680934567948</v>
+        <v>41.28708386162367</v>
       </c>
       <c r="I18">
-        <v>35.60584003177402</v>
+        <v>25.65482323607515</v>
       </c>
       <c r="J18">
-        <v>9.300217272223707</v>
+        <v>5.616678118611137</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.15262542457676</v>
+        <v>7.590475340469194</v>
       </c>
       <c r="M18">
-        <v>20.87472492445545</v>
+        <v>16.48134588227251</v>
       </c>
       <c r="N18">
-        <v>21.87135629426986</v>
+        <v>13.55618061393561</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.65137309081008</v>
+        <v>27.97953448570408</v>
       </c>
       <c r="C19">
-        <v>13.25919833246323</v>
+        <v>19.735840011293</v>
       </c>
       <c r="D19">
-        <v>4.199102991963062</v>
+        <v>3.022454068356908</v>
       </c>
       <c r="E19">
-        <v>9.472562193019277</v>
+        <v>6.21184714290795</v>
       </c>
       <c r="F19">
-        <v>51.20024502459126</v>
+        <v>41.18974559390698</v>
       </c>
       <c r="I19">
-        <v>35.60786557935936</v>
+        <v>25.62035590730781</v>
       </c>
       <c r="J19">
-        <v>9.300737986903322</v>
+        <v>5.618368919646468</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.153211988474</v>
+        <v>7.581143134282514</v>
       </c>
       <c r="M19">
-        <v>20.86936564623069</v>
+        <v>16.43220212974054</v>
       </c>
       <c r="N19">
-        <v>21.87703987497229</v>
+        <v>13.5792908563705</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.77097420122383</v>
+        <v>28.50006127793703</v>
       </c>
       <c r="C20">
-        <v>13.39962667813201</v>
+        <v>20.15582773951106</v>
       </c>
       <c r="D20">
-        <v>4.209865667849406</v>
+        <v>3.071214586695358</v>
       </c>
       <c r="E20">
-        <v>9.477524372024536</v>
+        <v>6.237726970409016</v>
       </c>
       <c r="F20">
-        <v>51.23058618038468</v>
+        <v>41.62962265907957</v>
       </c>
       <c r="I20">
-        <v>35.59924337275156</v>
+        <v>25.77726506900187</v>
       </c>
       <c r="J20">
-        <v>9.298409623965298</v>
+        <v>5.610784923973592</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.1506823962629</v>
+        <v>7.623378251779219</v>
       </c>
       <c r="M20">
-        <v>20.89373665312898</v>
+        <v>16.65314454606619</v>
       </c>
       <c r="N20">
-        <v>21.85159532913437</v>
+        <v>13.47542738765181</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.17594119980157</v>
+        <v>30.22658788472138</v>
       </c>
       <c r="C21">
-        <v>13.86507745832297</v>
+        <v>21.53125059678683</v>
       </c>
       <c r="D21">
-        <v>4.245400832118922</v>
+        <v>3.234975325184654</v>
       </c>
       <c r="E21">
-        <v>9.49400406961545</v>
+        <v>6.325772250321458</v>
       </c>
       <c r="F21">
-        <v>51.34651971668765</v>
+        <v>43.1403414828854</v>
       </c>
       <c r="I21">
-        <v>35.5789161396868</v>
+        <v>26.33701793053278</v>
       </c>
       <c r="J21">
-        <v>9.290846968894437</v>
+        <v>5.58572917194607</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.14410641605627</v>
+        <v>7.769527966323533</v>
       </c>
       <c r="M21">
-        <v>20.98001729739529</v>
+        <v>17.39163345680117</v>
       </c>
       <c r="N21">
-        <v>21.76841372889895</v>
+        <v>13.12864698777064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.44251841378005</v>
+        <v>31.40088214572562</v>
       </c>
       <c r="C22">
-        <v>14.16399078580403</v>
+        <v>22.40473000456848</v>
       </c>
       <c r="D22">
-        <v>4.268157588183336</v>
+        <v>3.342227740141648</v>
       </c>
       <c r="E22">
-        <v>9.504632135079873</v>
+        <v>6.384316226514349</v>
       </c>
       <c r="F22">
-        <v>51.43267980058818</v>
+        <v>44.15292114251329</v>
       </c>
       <c r="I22">
-        <v>35.57208886428301</v>
+        <v>26.72840162491794</v>
       </c>
       <c r="J22">
-        <v>9.286097614192455</v>
+        <v>5.569660352955537</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.14123922095873</v>
+        <v>7.868293008303824</v>
       </c>
       <c r="M22">
-        <v>21.03963156551484</v>
+        <v>17.87128909259437</v>
       </c>
       <c r="N22">
-        <v>21.71576446347408</v>
+        <v>12.90341763696336</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.30009342809117</v>
+        <v>30.7772293405499</v>
       </c>
       <c r="C23">
-        <v>14.00497167792428</v>
+        <v>21.94078629508976</v>
       </c>
       <c r="D23">
-        <v>4.256054721202728</v>
+        <v>3.284945273124383</v>
       </c>
       <c r="E23">
-        <v>9.498972690635304</v>
+        <v>6.352965682401078</v>
       </c>
       <c r="F23">
-        <v>51.38574648995924</v>
+        <v>43.61011789311483</v>
       </c>
       <c r="I23">
-        <v>35.57514084371246</v>
+        <v>26.51708880073542</v>
       </c>
       <c r="J23">
-        <v>9.28861479700336</v>
+        <v>5.578209219701864</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.14263878373348</v>
+        <v>7.815277069850998</v>
       </c>
       <c r="M23">
-        <v>21.00752272035579</v>
+        <v>17.6155642917233</v>
       </c>
       <c r="N23">
-        <v>21.7437078465524</v>
+        <v>13.02351161507389</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.76439345387783</v>
+        <v>28.47161047698126</v>
       </c>
       <c r="C24">
-        <v>13.39193754458105</v>
+        <v>20.13290098708453</v>
       </c>
       <c r="D24">
-        <v>4.209276985439427</v>
+        <v>3.068537792557224</v>
       </c>
       <c r="E24">
-        <v>9.477252600152971</v>
+        <v>6.236302105616057</v>
       </c>
       <c r="F24">
-        <v>51.22886727116553</v>
+        <v>41.60534500196406</v>
       </c>
       <c r="I24">
-        <v>35.59968439638746</v>
+        <v>25.76852903344082</v>
       </c>
       <c r="J24">
-        <v>9.298536505269061</v>
+        <v>5.611199773938655</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.15081406807657</v>
+        <v>7.621043118199392</v>
       </c>
       <c r="M24">
-        <v>20.89238164145942</v>
+        <v>16.64102540916247</v>
       </c>
       <c r="N24">
-        <v>21.85298392178023</v>
+        <v>13.48112229326651</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.19747164687344</v>
+        <v>25.92633725893524</v>
       </c>
       <c r="C25">
-        <v>12.7116096789375</v>
+        <v>18.06645344132712</v>
       </c>
       <c r="D25">
-        <v>4.156818706975699</v>
+        <v>2.834388247397384</v>
       </c>
       <c r="E25">
-        <v>9.453205252937344</v>
+        <v>6.113607928329521</v>
       </c>
       <c r="F25">
-        <v>51.10447357438098</v>
+        <v>39.54669459212538</v>
       </c>
       <c r="I25">
-        <v>35.65376970399402</v>
+        <v>25.06264838209631</v>
       </c>
       <c r="J25">
-        <v>9.310073369184019</v>
+        <v>5.648169052300063</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.165791269619</v>
+        <v>7.424971678405637</v>
       </c>
       <c r="M25">
-        <v>20.78235978823906</v>
+        <v>15.57814713707377</v>
       </c>
       <c r="N25">
-        <v>21.97825661289527</v>
+        <v>13.98219950153943</v>
       </c>
       <c r="O25">
         <v>0</v>
